--- a/Projects/INBEVBR_SAND/Data/Ambev template v2.1 - KENGINE.xlsx
+++ b/Projects/INBEVBR_SAND/Data/Ambev template v2.1 - KENGINE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIS" sheetId="1" state="visible" r:id="rId2"/>
@@ -1563,9 +1563,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>5302440</xdr:colOff>
+      <xdr:colOff>5302080</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1578,8 +1578,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38938320" y="1495440"/>
-          <a:ext cx="4673520" cy="3111840"/>
+          <a:off x="38462040" y="1495440"/>
+          <a:ext cx="4673160" cy="3111480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1605,9 +1605,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>296280</xdr:colOff>
+      <xdr:colOff>295920</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>58680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1616,8 +1616,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="580680" y="0"/>
-          <a:ext cx="17984520" cy="13174920"/>
+          <a:off x="571320" y="0"/>
+          <a:ext cx="17755200" cy="13174560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1647,9 +1647,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>296280</xdr:colOff>
+      <xdr:colOff>295920</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>58680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1658,8 +1658,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="580680" y="0"/>
-          <a:ext cx="17984520" cy="13174920"/>
+          <a:off x="571320" y="0"/>
+          <a:ext cx="17755200" cy="13174560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1689,9 +1689,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>921240</xdr:colOff>
+      <xdr:colOff>920880</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1700,8 +1700,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="580680" y="0"/>
-          <a:ext cx="9093960" cy="159480"/>
+          <a:off x="571320" y="0"/>
+          <a:ext cx="8998200" cy="159120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1731,9 +1731,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>921240</xdr:colOff>
+      <xdr:colOff>920880</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1742,8 +1742,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="580680" y="0"/>
-          <a:ext cx="9093960" cy="159480"/>
+          <a:off x="571320" y="0"/>
+          <a:ext cx="8998200" cy="159120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1780,15 +1780,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="69.7908163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="68.9795918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.6275510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3276,27 +3274,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.3469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="93.8214285714286"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="9" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="64.1224489795918"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.6734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="92.7397959183674"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="9" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="63.4438775510204"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="27.5408163265306"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8576,26 +8570,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="51.4336734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="90.0408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="59.2602040816327"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="5" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="5" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="77.6224489795918"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="24" style="5" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="50.7551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="88.9591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="58.5867346938776"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="5" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="5" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="76.6734693877551"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="24" style="5" width="9.31632653061224"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13426,31 +13420,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="75.3265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="110.285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="35.3673469387755"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="63.5816326530612"/>
-    <col collapsed="false" hidden="false" max="17" min="14" style="5" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="23" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="77.6224489795918"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="51.4336734693878"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1002" min="31" style="5" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="1003" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="74.3826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="109.071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="34.9642857142857"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="62.7704081632653"/>
+    <col collapsed="false" hidden="false" max="17" min="14" style="5" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="23" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="76.6734693877551"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="50.7551020408163"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1002" min="31" style="5" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="1003" style="0" width="7.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13927,7 +13921,7 @@
   </sheetPr>
   <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="N36" activeCellId="0" sqref="N36"/>
@@ -13935,28 +13929,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="46.1683673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="63.3112244897959"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="36.8520408163265"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="56.6989795918367"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="42.3877551020408"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="40.765306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="27.4030612244898"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="24" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="84.7755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="45.6275510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="62.5"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="56.0204081632653"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="41.8469387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="40.2295918367347"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="24" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="83.6938775510204"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15769,29 +15758,26 @@
   </sheetPr>
   <dimension ref="A1:AMB37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.2397959183674"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.4489795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="63.984693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="44.6836734693878"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.5918367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="43.469387755102"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="77.7551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.7040816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.9081632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="63.3112244897959"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="44.1428571428571"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.1887755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="42.9285714285714"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="76.8112244897959"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16513,9 +16499,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
@@ -16540,13 +16523,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.7142857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.1071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.9081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.5663265306123"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
